--- a/com.airbnb/src/test/resources/TestData.xlsx
+++ b/com.airbnb/src/test/resources/TestData.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.mercedesbenz\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722EE68-90EB-42C0-AF92-D8B589C2F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C75691-8D8C-4D5C-966D-232DC8B1FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expedia" sheetId="1" r:id="rId1"/>
-    <sheet name="Ebay" sheetId="2" r:id="rId2"/>
-    <sheet name="CBSSports" sheetId="3" r:id="rId3"/>
-    <sheet name="ATT" sheetId="4" r:id="rId4"/>
-    <sheet name="BankOfAmerica" sheetId="5" r:id="rId5"/>
-    <sheet name="BMWUSA" sheetId="6" r:id="rId6"/>
-    <sheet name="Trulia" sheetId="7" r:id="rId7"/>
-    <sheet name="AirBNB" sheetId="8" r:id="rId8"/>
-    <sheet name="OverStock" sheetId="9" r:id="rId9"/>
-    <sheet name="ESPN" sheetId="10" r:id="rId10"/>
-    <sheet name="Verizon" sheetId="11" r:id="rId11"/>
-    <sheet name="Chase" sheetId="12" r:id="rId12"/>
-    <sheet name="Mercedes-Benz" sheetId="13" r:id="rId13"/>
-    <sheet name="Redfin" sheetId="14" r:id="rId14"/>
+    <sheet name="AssertionResult" sheetId="20" r:id="rId1"/>
+    <sheet name="REGExpected" sheetId="23" r:id="rId2"/>
+    <sheet name="CalData" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,22 +36,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Mortgage Location</t>
+  </si>
+  <si>
+    <t>Mortgage Price</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>550000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Down Payment</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>740-759</t>
+  </si>
+  <si>
+    <t>NationalGuard</t>
+  </si>
+  <si>
+    <t>20 Year Fixed</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Pause (k)</t>
+  </si>
+  <si>
+    <t>Play (k)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF89CA78"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD19A66"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +177,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,195 +509,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D9F3F-CCCE-4DC8-AD6F-1F59647910C7}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4F54D1-3917-41AA-9115-54DFB60054C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A4ED8F-84C7-4351-B184-022F160E827E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD1F144-5BE0-43B5-8C2F-943F03339C79}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C25186B-8AE5-4703-8BDB-6D9F1A2F53C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751B09C-FE73-4F13-A91B-81E55B55AAEA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B078C-DE4C-4C36-8FF2-6E7710C38CAF}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="83.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A517B4-AB0A-4E50-8324-F3955FA294DA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49513637-0BFE-4EB2-B9A4-63405C8675C1}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464987E-CA86-496F-AFAF-2580C40BA720}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB124C4-9CEE-457F-95C0-47C63DA908AF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5674FF68-7C81-4A9C-99FE-C7E070DBCFFA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC436034-E141-4F6F-A259-658744C38455}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06E338-1C0F-45E0-B136-3FC6897D7CEC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9241A-80CA-47A8-B8A7-CE843E51095C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/com.airbnb/src/test/resources/TestData.xlsx
+++ b/com.airbnb/src/test/resources/TestData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.mercedesbenz\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.airbnb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C75691-8D8C-4D5C-966D-232DC8B1FC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123F0D0-4342-4DD4-A0E7-ADB04203A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="AssertionResult" sheetId="20" r:id="rId1"/>
-    <sheet name="REGExpected" sheetId="23" r:id="rId2"/>
-    <sheet name="CalData" sheetId="25" r:id="rId3"/>
+    <sheet name="Expected" sheetId="23" r:id="rId2"/>
+    <sheet name="Data" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,79 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Result</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
-  <si>
-    <t>Mortgage Location</t>
-  </si>
-  <si>
-    <t>Mortgage Price</t>
-  </si>
-  <si>
-    <t>Queens</t>
-  </si>
-  <si>
-    <t>550000</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Down Payment</t>
-  </si>
-  <si>
-    <t>125000</t>
-  </si>
-  <si>
-    <t>740-759</t>
-  </si>
-  <si>
-    <t>NationalGuard</t>
-  </si>
-  <si>
-    <t>20 Year Fixed</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Pause (k)</t>
-  </si>
-  <si>
-    <t>Play (k)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,11 +65,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="JetBrains Mono"/>
     </font>
@@ -177,23 +112,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +447,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -526,33 +460,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -563,7 +487,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -577,49 +501,31 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,11 +535,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49513637-0BFE-4EB2-B9A4-63405C8675C1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -643,59 +547,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.airbnb/src/test/resources/TestData.xlsx
+++ b/com.airbnb/src/test/resources/TestData.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.airbnb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123F0D0-4342-4DD4-A0E7-ADB04203A200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14AE94-49F1-419A-9351-5195F642911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
-    <sheet name="AssertionResult" sheetId="20" r:id="rId1"/>
-    <sheet name="Expected" sheetId="23" r:id="rId2"/>
-    <sheet name="Data" sheetId="25" r:id="rId3"/>
+    <sheet name="FooterTitle" sheetId="23" r:id="rId1"/>
+    <sheet name="About" sheetId="20" r:id="rId2"/>
+    <sheet name="Community" sheetId="25" r:id="rId3"/>
+    <sheet name="Host" sheetId="26" r:id="rId4"/>
+    <sheet name="Support" sheetId="27" r:id="rId5"/>
+    <sheet name="FutureGateway" sheetId="28" r:id="rId6"/>
+    <sheet name="ArtsCulture" sheetId="30" r:id="rId7"/>
+    <sheet name="OutdoorAdventure" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +41,706 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Expected</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="231">
+  <si>
+    <t>How Airbnb works</t>
+  </si>
+  <si>
+    <t>Newsroom</t>
+  </si>
+  <si>
+    <t>Airbnb 2021</t>
+  </si>
+  <si>
+    <t>Investors</t>
+  </si>
+  <si>
+    <t>Airbnb Plus</t>
+  </si>
+  <si>
+    <t>Airbnb Luxe</t>
+  </si>
+  <si>
+    <t>HotelTonight</t>
+  </si>
+  <si>
+    <t>Airbnb for Work</t>
+  </si>
+  <si>
+    <t>Made possible by Hosts</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Founders' Letter</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>FooterTitle</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Diversity &amp; Belonging</t>
+  </si>
+  <si>
+    <t>Against Discrimination</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Airbnb Associates</t>
+  </si>
+  <si>
+    <t>Host Afghan refugees</t>
+  </si>
+  <si>
+    <t>Guest Referrals</t>
+  </si>
+  <si>
+    <t>Gift cards</t>
+  </si>
+  <si>
+    <t>Airbnb.org</t>
+  </si>
+  <si>
+    <t>Host your home</t>
+  </si>
+  <si>
+    <t>Host an Online Experience</t>
+  </si>
+  <si>
+    <t>Host an Experience</t>
+  </si>
+  <si>
+    <t>Responsible hosting</t>
+  </si>
+  <si>
+    <t>Resource Center</t>
+  </si>
+  <si>
+    <t>Community Center</t>
+  </si>
+  <si>
+    <t>Our COVID-19 Response</t>
+  </si>
+  <si>
+    <t>Help Center</t>
+  </si>
+  <si>
+    <t>Cancellation options</t>
+  </si>
+  <si>
+    <t>Neighborhood Support</t>
+  </si>
+  <si>
+    <t>Trust &amp; Safety</t>
+  </si>
+  <si>
+    <t>Future Gateway</t>
+  </si>
+  <si>
+    <t>Destinations for arts &amp; culture</t>
+  </si>
+  <si>
+    <t>Destinations for outdoor adventure</t>
+  </si>
+  <si>
+    <t>Mountain cabins</t>
+  </si>
+  <si>
+    <t>Beach destinations</t>
+  </si>
+  <si>
+    <t>Popular destinations</t>
+  </si>
+  <si>
+    <t>Unique Stays</t>
+  </si>
+  <si>
+    <t>Outdoor Adventure</t>
+  </si>
+  <si>
+    <t>Lake Martin</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Banff</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Nerja</t>
+  </si>
+  <si>
+    <t>Andalucía</t>
+  </si>
+  <si>
+    <t>Greer</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Lake Havasu City</t>
+  </si>
+  <si>
+    <t>Lake Powell</t>
+  </si>
+  <si>
+    <t>North Rim</t>
+  </si>
+  <si>
+    <t>Payson</t>
+  </si>
+  <si>
+    <t>Pinetop-Lakeside</t>
+  </si>
+  <si>
+    <t>Red Rock</t>
+  </si>
+  <si>
+    <t>Dinner Plain</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Streaky Bay</t>
+  </si>
+  <si>
+    <t>Emerald Lake</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Vancouver Island</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Idyllwild-Pine Cove</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Mammoth Lakes</t>
+  </si>
+  <si>
+    <t>Palm Desert</t>
+  </si>
+  <si>
+    <t>Shaver Lake</t>
+  </si>
+  <si>
+    <t>South Lake Tahoe</t>
+  </si>
+  <si>
+    <t>Cultus Lake</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Georgian Bay</t>
+  </si>
+  <si>
+    <t>Manitoulin Island</t>
+  </si>
+  <si>
+    <t>Ottawa River</t>
+  </si>
+  <si>
+    <t>The Blue Mountains</t>
+  </si>
+  <si>
+    <t>West Kelowna</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Lanzarote</t>
+  </si>
+  <si>
+    <t>Castle Hill</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Estes Park</t>
+  </si>
+  <si>
+    <t>Grand Lake</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>Vail</t>
+  </si>
+  <si>
+    <t>Winter Park</t>
+  </si>
+  <si>
+    <t>Salcombe</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Swanage</t>
+  </si>
+  <si>
+    <t>Cape Coral</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Blue Ridge</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Jekyll Island</t>
+  </si>
+  <si>
+    <t>Lake Lanier</t>
+  </si>
+  <si>
+    <t>Corfu</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>McCall</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Clear Lake</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Lough Eske</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Lake Cumberland</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>South Portland</t>
+  </si>
+  <si>
+    <t>Deep Creek Lake</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Lake Michigan Beach</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Lakeside</t>
+  </si>
+  <si>
+    <t>Torch Lake</t>
+  </si>
+  <si>
+    <t>Traverse City</t>
+  </si>
+  <si>
+    <t>Upper Peninsula of Michigan</t>
+  </si>
+  <si>
+    <t>Branson</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Lake of the Ozarks</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>West Yellowstone</t>
+  </si>
+  <si>
+    <t>Mount Charleston</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Cloudcroft</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Red River</t>
+  </si>
+  <si>
+    <t>Bellingen</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>Brunswick Heads</t>
+  </si>
+  <si>
+    <t>Adirondack Mountains</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Lake Placid</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>Bald Head Island</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Bryson City</t>
+  </si>
+  <si>
+    <t>Emerald Isle</t>
+  </si>
+  <si>
+    <t>Lake Gaston</t>
+  </si>
+  <si>
+    <t>Lake Lure</t>
+  </si>
+  <si>
+    <t>Lake Norman of Catawba</t>
+  </si>
+  <si>
+    <t>Mount Airy</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Oak Island</t>
+  </si>
+  <si>
+    <t>Geneva-on-the-Lake</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Medicine Park</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Turner Falls</t>
+  </si>
+  <si>
+    <t>Algonquin Park</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Muskoka Lakes</t>
+  </si>
+  <si>
+    <t>Tobermory</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Crater Lake</t>
+  </si>
+  <si>
+    <t>Northern Oregon Coast Range</t>
+  </si>
+  <si>
+    <t>Sunriver</t>
+  </si>
+  <si>
+    <t>Lake Harmony</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Mount Pocono</t>
+  </si>
+  <si>
+    <t>Mont-Tremblant</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Aviemore</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Arts &amp; Culture</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Hot Springs</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Catalonia</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Keswick</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Sherwood Forest</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Grande Isle</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Marthas Vineyard</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>South Haven</t>
+  </si>
+  <si>
+    <t>Duluth</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Inverness</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Split-Dalmatia County</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Darthmouth</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>St Ives</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Lake Anna</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Leavenworth</t>
+  </si>
+  <si>
+    <t>Seattle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +783,15 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -128,6 +829,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,51 +1154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D9F3F-CCCE-4DC8-AD6F-1F59647910C7}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="86" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B078C-DE4C-4C36-8FF2-6E7710C38CAF}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -497,20 +1168,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6"/>
@@ -528,6 +1207,84 @@
       <c r="A10" s="6"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D9F3F-CCCE-4DC8-AD6F-1F59647910C7}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -535,9 +1292,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49513637-0BFE-4EB2-B9A4-63405C8675C1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -547,24 +1306,1594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BB5D3-8D85-431D-A6BA-BE6C19560D45}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0394BBB-E20B-48ED-8524-B641746405F7}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F37884-115C-4336-9AFB-2CDA4B0C0C20}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481660E0-8DDC-4945-B474-6B233162C7A0}">
+  <dimension ref="A1:A87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092AE368-E522-439E-91D3-7D0E10B8D68F}">
+  <dimension ref="A1:A185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.airbnb/src/test/resources/TestData.xlsx
+++ b/com.airbnb/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.airbnb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14AE94-49F1-419A-9351-5195F642911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8259915F-B174-4669-BFF5-5AC59C335295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="FooterTitle" sheetId="23" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Support" sheetId="27" r:id="rId5"/>
     <sheet name="FutureGateway" sheetId="28" r:id="rId6"/>
     <sheet name="ArtsCulture" sheetId="30" r:id="rId7"/>
-    <sheet name="OutdoorAdventure" sheetId="29" r:id="rId8"/>
+    <sheet name="Count" sheetId="31" r:id="rId8"/>
+    <sheet name="OutdoorAdventure" sheetId="29" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="232">
   <si>
     <t>How Airbnb works</t>
   </si>
@@ -734,6 +735,9 @@
   </si>
   <si>
     <t>Seattle</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481660E0-8DDC-4945-B474-6B233162C7A0}">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -1960,6 +1964,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2836EF-9BA6-4742-B604-E03B8C1E33B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092AE368-E522-439E-91D3-7D0E10B8D68F}">
   <dimension ref="A1:A185"/>
   <sheetViews>

--- a/com.airbnb/src/test/resources/TestData.xlsx
+++ b/com.airbnb/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\com.airbnb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8259915F-B174-4669-BFF5-5AC59C335295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526BAF2-0311-4753-BF29-701F312EC7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="8" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="FooterTitle" sheetId="23" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Support" sheetId="27" r:id="rId5"/>
     <sheet name="FutureGateway" sheetId="28" r:id="rId6"/>
     <sheet name="ArtsCulture" sheetId="30" r:id="rId7"/>
-    <sheet name="Count" sheetId="31" r:id="rId8"/>
-    <sheet name="OutdoorAdventure" sheetId="29" r:id="rId9"/>
+    <sheet name="OutdoorAdventure" sheetId="29" r:id="rId8"/>
+    <sheet name="Count" sheetId="31" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="239">
   <si>
     <t>How Airbnb works</t>
   </si>
@@ -738,6 +738,27 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>185</t>
   </si>
 </sst>
 </file>
@@ -817,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,6 +866,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481660E0-8DDC-4945-B474-6B233162C7A0}">
   <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -1964,31 +1986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2836EF-9BA6-4742-B604-E03B8C1E33B0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092AE368-E522-439E-91D3-7D0E10B8D68F}">
   <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A165" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2923,4 +2924,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2836EF-9BA6-4742-B604-E03B8C1E33B0}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>